--- a/OASystem/WebContent/template/Apply_A3.xlsx
+++ b/OASystem/WebContent/template/Apply_A3.xlsx
@@ -705,6 +705,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -723,6 +741,111 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,33 +855,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,114 +872,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:S8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1192,62 +1192,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="70"/>
     </row>
     <row r="2" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="67"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="73"/>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -1268,22 +1268,22 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="69"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="75"/>
     </row>
     <row r="4" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1293,12 +1293,12 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1310,117 +1310,117 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="73"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="75"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
       <c r="T8" s="32"/>
       <c r="U8" s="31"/>
       <c r="V8" s="32"/>
@@ -1430,14 +1430,14 @@
       <c r="Z8" s="33"/>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="23" t="s">
         <v>19</v>
       </c>
@@ -1472,17 +1472,17 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="22" t="s">
         <v>21</v>
       </c>
@@ -1603,31 +1603,31 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="54" t="s">
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54" t="s">
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54" t="s">
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1637,25 +1637,25 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -1665,25 +1665,25 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -1693,53 +1693,53 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
       <c r="P18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
       <c r="W18" s="27"/>
       <c r="X18" s="28"/>
       <c r="Y18" s="27"/>
@@ -1843,29 +1843,29 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="54" t="s">
+      <c r="L22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="54" t="s">
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54" t="s">
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54" t="s">
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
     </row>
     <row r="23" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1879,21 +1879,21 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1907,21 +1907,21 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -1935,21 +1935,21 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1980,13 +1980,13 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2011,374 +2011,374 @@
     </row>
     <row r="28" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89" t="s">
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89" t="s">
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="90"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="55"/>
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="51"/>
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="51"/>
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="51"/>
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="51"/>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="51"/>
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="51"/>
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="51"/>
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="44"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="44"/>
-      <c r="Y36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="51"/>
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="51"/>
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="51"/>
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="51"/>
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="94"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="96"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="45"/>
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,84 @@
       <c r="Z43" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="92">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="X23:Z25"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J17"/>
+    <mergeCell ref="R15:T17"/>
+    <mergeCell ref="O15:Q17"/>
+    <mergeCell ref="L15:N17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A1:Z2"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Z6"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F7:Y7"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="X15:Z17"/>
+    <mergeCell ref="U15:W17"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="L23:N25"/>
+    <mergeCell ref="O23:Q25"/>
+    <mergeCell ref="R23:T25"/>
+    <mergeCell ref="U23:W25"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="T29:Y29"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:J40"/>
     <mergeCell ref="K40:S40"/>
@@ -2483,82 +2560,6 @@
     <mergeCell ref="K39:S39"/>
     <mergeCell ref="F39:J39"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="K38:S38"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="U15:W17"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F7:Y7"/>
-    <mergeCell ref="A1:Z2"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Z6"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="L23:N25"/>
-    <mergeCell ref="O23:Q25"/>
-    <mergeCell ref="R23:T25"/>
-    <mergeCell ref="U23:W25"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="X23:Z25"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="O15:Q17"/>
-    <mergeCell ref="L15:N17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="T33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
